--- a/LR3/table_1_88.xlsx
+++ b/LR3/table_1_88.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\пк\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE5162-64C3-48F7-9B8A-F411F39AD9D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -556,29 +557,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="11" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>88</v>
       </c>
@@ -593,7 +594,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -653,7 +654,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(F3&gt;G3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -668,7 +669,7 @@
         <v>6776.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -676,14 +677,15 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>96.800000000000011</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>6727.6</v>
       </c>
       <c r="F4" s="3">
@@ -693,22 +695,22 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(F4&gt;G4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H37" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6727.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -716,14 +718,15 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>96.800000000000011</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6679.2000000000007</v>
       </c>
       <c r="F5" s="3">
@@ -733,22 +736,22 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6679.2000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -756,15 +759,15 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f>C5-0.5</f>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6630.8000000000011</v>
       </c>
       <c r="F6" s="3">
@@ -774,22 +777,22 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6630.8000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -797,15 +800,15 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C38" si="5">C6-0.5</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6582.4000000000005</v>
       </c>
       <c r="F7" s="3">
@@ -815,22 +818,22 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6582.4000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -838,15 +841,15 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6534.0000000000009</v>
       </c>
       <c r="F8" s="3">
@@ -856,22 +859,22 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6534.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -879,15 +882,15 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6485.6</v>
       </c>
       <c r="F9" s="3">
@@ -897,22 +900,22 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6485.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -920,15 +923,15 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6437.2000000000007</v>
       </c>
       <c r="F10" s="3">
@@ -938,22 +941,22 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6437.2000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -961,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -969,7 +972,7 @@
         <v>48.400000000000006</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3194.4000000000005</v>
       </c>
       <c r="F11" s="3">
@@ -979,22 +982,22 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3194.4000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1002,16 +1005,16 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f>$A$1*1.1</f>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>6340.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>3170.2000000000003</v>
       </c>
       <c r="F12" s="3">
         <v>44813</v>
@@ -1020,22 +1023,22 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
-        <v>6350.4000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3180.2000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1043,16 +1046,16 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D38" si="6">$A$1*1.1</f>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>6292.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>3146.0000000000005</v>
       </c>
       <c r="F13" s="3">
         <v>44813</v>
@@ -1061,22 +1064,22 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
-        <v>6312.0000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3166.0000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1084,16 +1087,16 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>6243.6</v>
+        <f t="shared" si="0"/>
+        <v>3121.8</v>
       </c>
       <c r="F14" s="3">
         <v>44813</v>
@@ -1102,22 +1105,22 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
-        <v>6273.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3151.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1125,16 +1128,16 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>6195.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>3097.6000000000004</v>
       </c>
       <c r="F15" s="3">
         <v>44813</v>
@@ -1143,22 +1146,22 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
-        <v>6235.2000000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3137.6000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1166,16 +1169,16 @@
         <v>42</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>6146.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>3073.4000000000005</v>
       </c>
       <c r="F16" s="3">
         <v>44813</v>
@@ -1184,22 +1187,22 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
-        <v>6196.8000000000011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3123.4000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1207,16 +1210,16 @@
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>6098.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>3049.2000000000003</v>
       </c>
       <c r="F17" s="3">
         <v>44813</v>
@@ -1225,22 +1228,22 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
-        <v>6158.4000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3109.2000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1248,16 +1251,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>6050.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>3025.0000000000005</v>
       </c>
       <c r="F18" s="3">
         <v>44813</v>
@@ -1266,22 +1269,22 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
-        <v>6120.0000000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3095.0000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1289,16 +1292,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>6001.6</v>
+        <f t="shared" si="0"/>
+        <v>3000.8</v>
       </c>
       <c r="F19" s="3">
         <v>44813</v>
@@ -1307,22 +1310,22 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
-        <v>6081.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3080.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1330,16 +1333,16 @@
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>5953.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>2976.6000000000004</v>
       </c>
       <c r="F20" s="3">
         <v>44813</v>
@@ -1348,22 +1351,22 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
-        <v>6043.2000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3066.6000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1371,16 +1374,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>5904.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>2952.4000000000005</v>
       </c>
       <c r="F21" s="3">
         <v>44813</v>
@@ -1389,22 +1392,22 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
-        <v>6004.8000000000011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3052.4000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1412,16 +1415,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>5856.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>2928.2000000000003</v>
       </c>
       <c r="F22" s="3">
         <v>44813</v>
@@ -1430,22 +1433,22 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
-        <v>5966.4000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3038.2000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1453,16 +1456,16 @@
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>5808.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>2904.0000000000005</v>
       </c>
       <c r="F23" s="3">
         <v>44813</v>
@@ -1471,22 +1474,22 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
-        <v>5928.0000000000009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3024.0000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1494,16 +1497,16 @@
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>5759.6</v>
+        <f t="shared" si="0"/>
+        <v>2879.8</v>
       </c>
       <c r="F24" s="3">
         <v>44813</v>
@@ -1512,22 +1515,22 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
-        <v>5889.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3009.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1535,16 +1538,16 @@
         <v>25</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>5711.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>2855.6000000000004</v>
       </c>
       <c r="F25" s="3">
         <v>44813</v>
@@ -1553,22 +1556,22 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
-        <v>5851.2000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2995.6000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1576,16 +1579,16 @@
         <v>26</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>5662.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>2831.4000000000005</v>
       </c>
       <c r="F26" s="3">
         <v>44813</v>
@@ -1594,22 +1597,22 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
-        <v>5812.8000000000011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2981.4000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1617,16 +1620,16 @@
         <v>27</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>5614.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>2807.2000000000003</v>
       </c>
       <c r="F27" s="3">
         <v>44813</v>
@@ -1635,22 +1638,22 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
-        <v>5774.4000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2967.2000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1658,16 +1661,16 @@
         <v>28</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>5566.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>2783.0000000000005</v>
       </c>
       <c r="F28" s="3">
         <v>44813</v>
@@ -1676,22 +1679,22 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
-        <v>5736.0000000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2953.0000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1699,16 +1702,16 @@
         <v>29</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>5517.6</v>
+        <f t="shared" si="0"/>
+        <v>2758.8</v>
       </c>
       <c r="F29" s="3">
         <v>44813</v>
@@ -1717,22 +1720,22 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
-        <v>5697.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2938.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1740,16 +1743,16 @@
         <v>30</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>5469.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>2734.6000000000004</v>
       </c>
       <c r="F30" s="3">
         <v>44813</v>
@@ -1758,22 +1761,22 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
-        <v>5659.2000000000007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2924.6000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1781,16 +1784,16 @@
         <v>31</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>5420.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>2710.4000000000005</v>
       </c>
       <c r="F31" s="3">
         <v>44813</v>
@@ -1799,22 +1802,22 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
-        <v>5620.8000000000011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2910.4000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1822,16 +1825,16 @@
         <v>32</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>5372.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>2686.2000000000003</v>
       </c>
       <c r="F32" s="3">
         <v>44813</v>
@@ -1840,22 +1843,22 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
-        <v>5582.4000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2896.2000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1863,16 +1866,16 @@
         <v>33</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>5324.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>2662.0000000000005</v>
       </c>
       <c r="F33" s="3">
         <v>44813</v>
@@ -1881,22 +1884,22 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
-        <v>5544.0000000000009</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2882.0000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1904,16 +1907,16 @@
         <v>34</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>5275.6</v>
+        <f t="shared" si="0"/>
+        <v>2637.8</v>
       </c>
       <c r="F34" s="3">
         <v>44813</v>
@@ -1922,22 +1925,22 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
-        <v>5505.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2867.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1945,16 +1948,16 @@
         <v>35</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f>$D$3/3</f>
+        <v>32.266666666666673</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>5227.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>1742.4000000000003</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -1963,22 +1966,22 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>5467.2000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1982.4000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1986,16 +1989,16 @@
         <v>36</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <f t="shared" ref="D36:D38" si="6">$D$3/3</f>
+        <v>32.266666666666673</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>5178.8</v>
+        <f t="shared" si="0"/>
+        <v>1726.2666666666671</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -2004,22 +2007,22 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
-        <v>5428.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1976.2666666666671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2027,16 +2030,16 @@
         <v>37</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <v>32.266666666666673</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>5130.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1710.1333333333337</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2045,22 +2048,22 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
-        <v>5390.4000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1970.1333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2068,16 +2071,16 @@
         <v>38</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="6"/>
-        <v>96.800000000000011</v>
+        <v>32.266666666666673</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>5082.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>1694.0000000000002</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2086,31 +2089,31 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(G38&gt;F38,G38-F38,0)</f>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
-        <v>5352.0000000000009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1964.0000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
-        <v>214029.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>133492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>50</v>
       </c>

--- a/LR3/table_1_88.xlsx
+++ b/LR3/table_1_88.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE5162-64C3-48F7-9B8A-F411F39AD9D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62839548-4FFE-4F25-AEA2-931B4655CC19}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,9 +105,6 @@
     <t>Сеняшина</t>
   </si>
   <si>
-    <t>Соловьева</t>
-  </si>
-  <si>
     <t>Табаков</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Сумма, руб</t>
   </si>
   <si>
-    <t>Просрочка, дни</t>
-  </si>
-  <si>
     <t>Крылов</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб</t>
+  </si>
+  <si>
+    <t>Соловьёва</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -617,16 +617,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>96.800000000000011</v>
       </c>
       <c r="E3" s="1">
@@ -671,6 +671,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -681,7 +682,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>D3</f>
+        <f>$D$3</f>
         <v>96.800000000000011</v>
       </c>
       <c r="E4" s="1">
@@ -712,17 +713,18 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="5">D4</f>
+        <f t="shared" ref="D5:D34" si="6">$D$3</f>
         <v>96.800000000000011</v>
       </c>
       <c r="E5" s="1">
@@ -753,17 +755,18 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E6" s="1">
@@ -794,17 +797,18 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E7" s="1">
@@ -835,17 +839,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E8" s="1">
@@ -876,17 +881,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E9" s="1">
@@ -917,17 +923,18 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.800000000000011</v>
       </c>
       <c r="E10" s="1">
@@ -958,17 +965,18 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>D10/2</f>
+        <f>$D$3/2</f>
         <v>48.400000000000006</v>
       </c>
       <c r="E11" s="1">
@@ -999,22 +1007,23 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>3170.2000000000003</v>
+        <v>6340.4000000000005</v>
       </c>
       <c r="F12" s="3">
         <v>44813</v>
@@ -1035,27 +1044,28 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>3180.2000000000003</v>
+        <v>6350.4000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>3146.0000000000005</v>
+        <v>6292.0000000000009</v>
       </c>
       <c r="F13" s="3">
         <v>44813</v>
@@ -1076,27 +1086,28 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>3166.0000000000005</v>
+        <v>6312.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>3121.8</v>
+        <v>6243.6</v>
       </c>
       <c r="F14" s="3">
         <v>44813</v>
@@ -1117,27 +1128,28 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>3151.8</v>
+        <v>6273.6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>3097.6000000000004</v>
+        <v>6195.2000000000007</v>
       </c>
       <c r="F15" s="3">
         <v>44813</v>
@@ -1158,27 +1170,28 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>3137.6000000000004</v>
+        <v>6235.2000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>3073.4000000000005</v>
+        <v>6146.8000000000011</v>
       </c>
       <c r="F16" s="3">
         <v>44813</v>
@@ -1199,27 +1212,28 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>3123.4000000000005</v>
+        <v>6196.8000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>3049.2000000000003</v>
+        <v>6098.4000000000005</v>
       </c>
       <c r="F17" s="3">
         <v>44813</v>
@@ -1240,27 +1254,28 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>3109.2000000000003</v>
+        <v>6158.4000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>3025.0000000000005</v>
+        <v>6050.0000000000009</v>
       </c>
       <c r="F18" s="3">
         <v>44813</v>
@@ -1281,27 +1296,28 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>3095.0000000000005</v>
+        <v>6120.0000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>3000.8</v>
+        <v>6001.6</v>
       </c>
       <c r="F19" s="3">
         <v>44813</v>
@@ -1322,27 +1338,28 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>3080.8</v>
+        <v>6081.6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>2976.6000000000004</v>
+        <v>5953.2000000000007</v>
       </c>
       <c r="F20" s="3">
         <v>44813</v>
@@ -1363,27 +1380,28 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>3066.6000000000004</v>
+        <v>6043.2000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>2952.4000000000005</v>
+        <v>5904.8000000000011</v>
       </c>
       <c r="F21" s="3">
         <v>44813</v>
@@ -1404,27 +1422,28 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>3052.4000000000005</v>
+        <v>6004.8000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>2928.2000000000003</v>
+        <v>5856.4000000000005</v>
       </c>
       <c r="F22" s="3">
         <v>44813</v>
@@ -1445,27 +1464,28 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>3038.2000000000003</v>
+        <v>5966.4000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>2904.0000000000005</v>
+        <v>5808.0000000000009</v>
       </c>
       <c r="F23" s="3">
         <v>44813</v>
@@ -1486,27 +1506,28 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>3024.0000000000005</v>
+        <v>5928.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>2879.8</v>
+        <v>5759.6</v>
       </c>
       <c r="F24" s="3">
         <v>44813</v>
@@ -1527,27 +1548,28 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>3009.8</v>
+        <v>5889.6</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>2855.6000000000004</v>
+        <v>5711.2000000000007</v>
       </c>
       <c r="F25" s="3">
         <v>44813</v>
@@ -1568,27 +1590,28 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>2995.6000000000004</v>
+        <v>5851.2000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>2831.4000000000005</v>
+        <v>5662.8000000000011</v>
       </c>
       <c r="F26" s="3">
         <v>44813</v>
@@ -1609,27 +1632,28 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>2981.4000000000005</v>
+        <v>5812.8000000000011</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>2807.2000000000003</v>
+        <v>5614.4000000000005</v>
       </c>
       <c r="F27" s="3">
         <v>44813</v>
@@ -1650,27 +1674,28 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>2967.2000000000003</v>
+        <v>5774.4000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>2783.0000000000005</v>
+        <v>5566.0000000000009</v>
       </c>
       <c r="F28" s="3">
         <v>44813</v>
@@ -1691,27 +1716,28 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>2953.0000000000005</v>
+        <v>5736.0000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>2758.8</v>
+        <v>5517.6</v>
       </c>
       <c r="F29" s="3">
         <v>44813</v>
@@ -1732,27 +1758,28 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>2938.8</v>
+        <v>5697.6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>2734.6000000000004</v>
+        <v>5469.2000000000007</v>
       </c>
       <c r="F30" s="3">
         <v>44813</v>
@@ -1773,27 +1800,28 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>2924.6000000000004</v>
+        <v>5659.2000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>2710.4000000000005</v>
+        <v>5420.8000000000011</v>
       </c>
       <c r="F31" s="3">
         <v>44813</v>
@@ -1814,27 +1842,28 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>2910.4000000000005</v>
+        <v>5620.8000000000011</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>2686.2000000000003</v>
+        <v>5372.4000000000005</v>
       </c>
       <c r="F32" s="3">
         <v>44813</v>
@@ -1855,27 +1884,28 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>2896.2000000000003</v>
+        <v>5582.4000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>2662.0000000000005</v>
+        <v>5324.0000000000009</v>
       </c>
       <c r="F33" s="3">
         <v>44813</v>
@@ -1896,27 +1926,28 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>2882.0000000000005</v>
+        <v>5544.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>2637.8</v>
+        <v>5275.6</v>
       </c>
       <c r="F34" s="3">
         <v>44813</v>
@@ -1937,22 +1968,23 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>2867.8</v>
+        <v>5505.6</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/3</f>
+        <f>D3/3</f>
         <v>32.266666666666673</v>
       </c>
       <c r="E35" s="1">
@@ -1983,17 +2015,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="6">$D$3/3</f>
+        <f t="shared" ref="D36:D38" si="7">D4/3</f>
         <v>32.266666666666673</v>
       </c>
       <c r="E36" s="1">
@@ -2024,17 +2057,18 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32.266666666666673</v>
       </c>
       <c r="E37" s="1">
@@ -2065,17 +2099,18 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32.266666666666673</v>
       </c>
       <c r="E38" s="1">
@@ -2106,16 +2141,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
-        <v>133492</v>
+        <v>200284</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2124,7 +2159,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2133,7 +2168,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_88.xlsx
+++ b/LR3/table_1_88.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62839548-4FFE-4F25-AEA2-931B4655CC19}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D7F6AD-21D8-4A29-85FB-AC7FCD0B3162}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,11 +235,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,28 +561,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O8" sqref="O8:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>88</v>
       </c>
@@ -594,7 +597,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -647,10 +650,10 @@
         <f>C3*D3</f>
         <v>6776.0000000000009</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -668,8 +671,9 @@
         <f>E3+J3</f>
         <v>6776.0000000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -689,10 +693,10 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>6727.6</v>
       </c>
-      <c r="F4" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -710,8 +714,9 @@
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6727.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -731,10 +736,10 @@
         <f t="shared" si="0"/>
         <v>6679.2000000000007</v>
       </c>
-      <c r="F5" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -752,8 +757,9 @@
         <f t="shared" si="3"/>
         <v>6679.2000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -773,10 +779,10 @@
         <f t="shared" si="0"/>
         <v>6630.8000000000011</v>
       </c>
-      <c r="F6" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -794,8 +800,9 @@
         <f t="shared" si="3"/>
         <v>6630.8000000000011</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -815,10 +822,10 @@
         <f t="shared" si="0"/>
         <v>6582.4000000000005</v>
       </c>
-      <c r="F7" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -836,8 +843,9 @@
         <f t="shared" si="3"/>
         <v>6582.4000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -857,10 +865,10 @@
         <f t="shared" si="0"/>
         <v>6534.0000000000009</v>
       </c>
-      <c r="F8" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -878,8 +886,9 @@
         <f t="shared" si="3"/>
         <v>6534.0000000000009</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -899,10 +908,10 @@
         <f t="shared" si="0"/>
         <v>6485.6</v>
       </c>
-      <c r="F9" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -920,8 +929,9 @@
         <f t="shared" si="3"/>
         <v>6485.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -941,10 +951,10 @@
         <f t="shared" si="0"/>
         <v>6437.2000000000007</v>
       </c>
-      <c r="F10" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -962,8 +972,9 @@
         <f t="shared" si="3"/>
         <v>6437.2000000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -983,10 +994,10 @@
         <f t="shared" si="0"/>
         <v>3194.4000000000005</v>
       </c>
-      <c r="F11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1004,8 +1015,9 @@
         <f t="shared" si="3"/>
         <v>3194.4000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1025,10 +1037,10 @@
         <f t="shared" si="0"/>
         <v>6340.4000000000005</v>
       </c>
-      <c r="F12" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1046,8 +1058,9 @@
         <f t="shared" si="3"/>
         <v>6350.4000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1067,10 +1080,10 @@
         <f t="shared" si="0"/>
         <v>6292.0000000000009</v>
       </c>
-      <c r="F13" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1088,8 +1101,9 @@
         <f t="shared" si="3"/>
         <v>6312.0000000000009</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1109,10 +1123,10 @@
         <f t="shared" si="0"/>
         <v>6243.6</v>
       </c>
-      <c r="F14" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1130,8 +1144,9 @@
         <f t="shared" si="3"/>
         <v>6273.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1151,10 +1166,10 @@
         <f t="shared" si="0"/>
         <v>6195.2000000000007</v>
       </c>
-      <c r="F15" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1172,8 +1187,9 @@
         <f t="shared" si="3"/>
         <v>6235.2000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1193,10 +1209,10 @@
         <f t="shared" si="0"/>
         <v>6146.8000000000011</v>
       </c>
-      <c r="F16" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1214,8 +1230,9 @@
         <f t="shared" si="3"/>
         <v>6196.8000000000011</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1235,10 +1252,10 @@
         <f t="shared" si="0"/>
         <v>6098.4000000000005</v>
       </c>
-      <c r="F17" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1256,8 +1273,9 @@
         <f t="shared" si="3"/>
         <v>6158.4000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1277,10 +1295,10 @@
         <f t="shared" si="0"/>
         <v>6050.0000000000009</v>
       </c>
-      <c r="F18" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1298,8 +1316,9 @@
         <f t="shared" si="3"/>
         <v>6120.0000000000009</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1319,10 +1338,10 @@
         <f t="shared" si="0"/>
         <v>6001.6</v>
       </c>
-      <c r="F19" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1340,8 +1359,9 @@
         <f t="shared" si="3"/>
         <v>6081.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1361,10 +1381,10 @@
         <f t="shared" si="0"/>
         <v>5953.2000000000007</v>
       </c>
-      <c r="F20" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1382,8 +1402,9 @@
         <f t="shared" si="3"/>
         <v>6043.2000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1403,10 +1424,10 @@
         <f t="shared" si="0"/>
         <v>5904.8000000000011</v>
       </c>
-      <c r="F21" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1424,8 +1445,9 @@
         <f t="shared" si="3"/>
         <v>6004.8000000000011</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1445,10 +1467,10 @@
         <f t="shared" si="0"/>
         <v>5856.4000000000005</v>
       </c>
-      <c r="F22" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1466,8 +1488,9 @@
         <f t="shared" si="3"/>
         <v>5966.4000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1487,10 +1510,10 @@
         <f t="shared" si="0"/>
         <v>5808.0000000000009</v>
       </c>
-      <c r="F23" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1508,8 +1531,9 @@
         <f t="shared" si="3"/>
         <v>5928.0000000000009</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1529,10 +1553,10 @@
         <f t="shared" si="0"/>
         <v>5759.6</v>
       </c>
-      <c r="F24" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1550,8 +1574,9 @@
         <f t="shared" si="3"/>
         <v>5889.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1571,10 +1596,10 @@
         <f t="shared" si="0"/>
         <v>5711.2000000000007</v>
       </c>
-      <c r="F25" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1592,8 +1617,9 @@
         <f t="shared" si="3"/>
         <v>5851.2000000000007</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1613,10 +1639,10 @@
         <f t="shared" si="0"/>
         <v>5662.8000000000011</v>
       </c>
-      <c r="F26" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1634,8 +1660,9 @@
         <f t="shared" si="3"/>
         <v>5812.8000000000011</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1655,10 +1682,10 @@
         <f t="shared" si="0"/>
         <v>5614.4000000000005</v>
       </c>
-      <c r="F27" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1676,8 +1703,9 @@
         <f t="shared" si="3"/>
         <v>5774.4000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1697,10 +1725,10 @@
         <f t="shared" si="0"/>
         <v>5566.0000000000009</v>
       </c>
-      <c r="F28" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1718,8 +1746,9 @@
         <f t="shared" si="3"/>
         <v>5736.0000000000009</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1739,10 +1768,10 @@
         <f t="shared" si="0"/>
         <v>5517.6</v>
       </c>
-      <c r="F29" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1760,8 +1789,9 @@
         <f t="shared" si="3"/>
         <v>5697.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1781,10 +1811,10 @@
         <f t="shared" si="0"/>
         <v>5469.2000000000007</v>
       </c>
-      <c r="F30" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1802,8 +1832,9 @@
         <f t="shared" si="3"/>
         <v>5659.2000000000007</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1823,10 +1854,10 @@
         <f t="shared" si="0"/>
         <v>5420.8000000000011</v>
       </c>
-      <c r="F31" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1844,8 +1875,9 @@
         <f t="shared" si="3"/>
         <v>5620.8000000000011</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1865,10 +1897,10 @@
         <f t="shared" si="0"/>
         <v>5372.4000000000005</v>
       </c>
-      <c r="F32" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1886,8 +1918,9 @@
         <f t="shared" si="3"/>
         <v>5582.4000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1907,10 +1940,10 @@
         <f t="shared" si="0"/>
         <v>5324.0000000000009</v>
       </c>
-      <c r="F33" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1928,8 +1961,9 @@
         <f t="shared" si="3"/>
         <v>5544.0000000000009</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -1949,10 +1983,10 @@
         <f t="shared" si="0"/>
         <v>5275.6</v>
       </c>
-      <c r="F34" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1970,8 +2004,9 @@
         <f t="shared" si="3"/>
         <v>5505.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -1991,10 +2026,10 @@
         <f t="shared" si="0"/>
         <v>1742.4000000000003</v>
       </c>
-      <c r="F35" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2012,8 +2047,9 @@
         <f t="shared" si="3"/>
         <v>1982.4000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2033,10 +2069,10 @@
         <f t="shared" si="0"/>
         <v>1726.2666666666671</v>
       </c>
-      <c r="F36" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2054,8 +2090,9 @@
         <f t="shared" si="3"/>
         <v>1976.2666666666671</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2075,10 +2112,10 @@
         <f t="shared" si="0"/>
         <v>1710.1333333333337</v>
       </c>
-      <c r="F37" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2096,8 +2133,9 @@
         <f t="shared" si="3"/>
         <v>1970.1333333333337</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2117,10 +2155,10 @@
         <f t="shared" si="0"/>
         <v>1694.0000000000002</v>
       </c>
-      <c r="F38" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2138,42 +2176,50 @@
         <f t="shared" si="3"/>
         <v>1964.0000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
         <v>200284</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <f>MAX(E3:E38)</f>
         <v>6776.0000000000009</v>
       </c>
+      <c r="L43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_88.xlsx
+++ b/LR3/table_1_88.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF280C2A-1C19-457E-BF24-E525FD337659}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDFD272-2B4E-4BC4-B3C4-C3EE0273E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -517,31 +527,31 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -576,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -616,7 +626,7 @@
         <v>6776.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -661,7 +671,7 @@
         <v>6727.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -706,7 +716,7 @@
         <v>6679.2000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -751,7 +761,7 @@
         <v>6630.8000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -796,7 +806,7 @@
         <v>6582.4000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -841,7 +851,7 @@
         <v>6534.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -886,7 +896,7 @@
         <v>6485.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -931,7 +941,7 @@
         <v>6437.2000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -976,7 +986,7 @@
         <v>6388.8000000000011</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1021,7 +1031,7 @@
         <v>6350.4000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1066,7 +1076,7 @@
         <v>6312.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1111,7 +1121,7 @@
         <v>6273.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1156,7 +1166,7 @@
         <v>6235.2000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1201,7 +1211,7 @@
         <v>6196.8000000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1246,7 +1256,7 @@
         <v>6158.4000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1291,7 +1301,7 @@
         <v>6120.0000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1336,7 +1346,7 @@
         <v>6081.6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1381,7 +1391,7 @@
         <v>6043.2000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1426,7 +1436,7 @@
         <v>6004.8000000000011</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1471,7 +1481,7 @@
         <v>5966.4000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1516,7 +1526,7 @@
         <v>5928.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1561,7 +1571,7 @@
         <v>5889.6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1606,7 +1616,7 @@
         <v>5851.2000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1651,7 +1661,7 @@
         <v>5812.8000000000011</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1696,7 +1706,7 @@
         <v>5774.4000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1741,7 +1751,7 @@
         <v>5736.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1786,7 +1796,7 @@
         <v>5697.6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1831,7 +1841,7 @@
         <v>5659.2000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1876,7 +1886,7 @@
         <v>5620.8000000000011</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1921,7 +1931,7 @@
         <v>5582.4000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1966,7 +1976,7 @@
         <v>5544.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2011,7 +2021,7 @@
         <v>5505.6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2056,7 +2066,7 @@
         <v>2853.6000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2101,7 +2111,7 @@
         <v>2839.4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2146,7 +2156,7 @@
         <v>2825.2000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2191,7 +2201,7 @@
         <v>2811.0000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +2211,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2220,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2219,7 +2229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
